--- a/data/trans_orig/P78DS_2023_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS_2023_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A9484D-0645-48E7-BCE4-566848BE5BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAA3ABDF-EDDD-4E18-BDC3-A6BB19577A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BA37BA4-EA91-42FF-B6EC-1DE34E4EDD6B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B6DD9B86-C60C-49C7-B34A-0EC4A8B87A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="190">
   <si>
     <t>Población según número de retrasos en pagos en 2023 (Tasa respuesta: 96,96%)</t>
   </si>
@@ -65,613 +65,544 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>3 o más retrasos</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2 retrasos</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1 retraso</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>Ningún retraso</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2 retrasos</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1 retraso</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Ningún retraso</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1086,8 +1017,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61DD7CD-85EB-4380-920C-4AF6829D1834}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3B0084-CB27-40CF-A084-90B3659B50ED}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1204,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1172</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1219,187 +1150,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1838</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>910</v>
+        <v>18820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>2924</v>
+        <v>18930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>3834</v>
+        <v>37751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>160</v>
+        <v>30893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I6" s="7">
-        <v>4486</v>
+        <v>51784</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="N6" s="7">
-        <v>4645</v>
+        <v>82677</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>112</v>
+        <v>655</v>
       </c>
       <c r="D7" s="7">
-        <v>98383</v>
+        <v>566699</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>222</v>
+        <v>1092</v>
       </c>
       <c r="I7" s="7">
-        <v>116521</v>
+        <v>634630</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>334</v>
+        <v>1747</v>
       </c>
       <c r="N7" s="7">
-        <v>214904</v>
+        <v>1201329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,255 +1339,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>115</v>
+        <v>716</v>
       </c>
       <c r="D8" s="7">
-        <v>99453</v>
+        <v>617584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>233</v>
+        <v>1207</v>
       </c>
       <c r="I8" s="7">
-        <v>123931</v>
+        <v>706010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>348</v>
+        <v>1923</v>
       </c>
       <c r="N8" s="7">
-        <v>223384</v>
+        <v>1323595</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>1308</v>
+        <v>6287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>722</v>
+        <v>6717</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>2030</v>
+        <v>13003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>21558</v>
+        <v>28739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>18416</v>
+        <v>34171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="N10" s="7">
-        <v>39974</v>
+        <v>62910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7">
-        <v>33656</v>
+        <v>82466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I11" s="7">
-        <v>53963</v>
+        <v>85590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="N11" s="7">
-        <v>87619</v>
+        <v>168056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
-        <v>543</v>
+        <v>821</v>
       </c>
       <c r="D12" s="7">
-        <v>480628</v>
+        <v>1054426</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>870</v>
+        <v>1282</v>
       </c>
       <c r="I12" s="7">
-        <v>533283</v>
+        <v>795670</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
-        <v>1413</v>
+        <v>2103</v>
       </c>
       <c r="N12" s="7">
-        <v>1013911</v>
+        <v>1850096</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,255 +1596,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>601</v>
+        <v>941</v>
       </c>
       <c r="D13" s="7">
-        <v>537150</v>
+        <v>1171918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>974</v>
+        <v>1472</v>
       </c>
       <c r="I13" s="7">
-        <v>606385</v>
+        <v>922147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
-        <v>1575</v>
+        <v>2413</v>
       </c>
       <c r="N13" s="7">
-        <v>1143535</v>
+        <v>2094065</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>6224</v>
+        <v>2340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>7280</v>
+        <v>6289</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>13504</v>
+        <v>8630</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7">
-        <v>32809</v>
+        <v>24715</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>39591</v>
+        <v>21105</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M15" s="7">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="N15" s="7">
-        <v>72400</v>
+        <v>45820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>90023</v>
+        <v>60790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="I16" s="7">
-        <v>99783</v>
+        <v>45104</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="N16" s="7">
-        <v>189807</v>
+        <v>105894</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>821</v>
+        <v>564</v>
       </c>
       <c r="D17" s="7">
-        <v>887924</v>
+        <v>589201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
-        <v>1282</v>
+        <v>898</v>
       </c>
       <c r="I17" s="7">
-        <v>873247</v>
+        <v>831286</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
-        <v>2103</v>
+        <v>1462</v>
       </c>
       <c r="N17" s="7">
-        <v>1761171</v>
+        <v>1420487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,255 +1853,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>941</v>
+        <v>648</v>
       </c>
       <c r="D18" s="7">
-        <v>1016980</v>
+        <v>677046</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>1472</v>
+        <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>1019901</v>
+        <v>903784</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>2413</v>
+        <v>1650</v>
       </c>
       <c r="N18" s="7">
-        <v>2036881</v>
+        <v>1580830</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>2822</v>
+        <v>7354</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>4389</v>
+        <v>3923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>7211</v>
+        <v>11277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7">
-        <v>26560</v>
+        <v>32963</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I20" s="7">
-        <v>24460</v>
+        <v>36841</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="N20" s="7">
-        <v>51021</v>
+        <v>69804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="D21" s="7">
-        <v>67414</v>
+        <v>113691</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="I21" s="7">
-        <v>51487</v>
+        <v>135692</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
-        <v>130</v>
+        <v>323</v>
       </c>
       <c r="N21" s="7">
-        <v>118901</v>
+        <v>249382</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
-        <v>564</v>
+        <v>807</v>
       </c>
       <c r="D22" s="7">
-        <v>602722</v>
+        <v>743564</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
-        <v>898</v>
+        <v>1251</v>
       </c>
       <c r="I22" s="7">
-        <v>761461</v>
+        <v>812735</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
-        <v>1462</v>
+        <v>2058</v>
       </c>
       <c r="N22" s="7">
-        <v>1364183</v>
+        <v>1556298</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,255 +2110,255 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>648</v>
+        <v>983</v>
       </c>
       <c r="D23" s="7">
-        <v>699519</v>
+        <v>897572</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>1002</v>
+        <v>1508</v>
       </c>
       <c r="I23" s="7">
-        <v>841797</v>
+        <v>989190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>1650</v>
+        <v>2491</v>
       </c>
       <c r="N23" s="7">
-        <v>1541316</v>
+        <v>1886761</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>7539</v>
+        <v>17153</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I24" s="7">
-        <v>4287</v>
+        <v>17595</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N24" s="7">
-        <v>11825</v>
+        <v>34749</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D25" s="7">
-        <v>38048</v>
+        <v>105237</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="I25" s="7">
-        <v>43373</v>
+        <v>111047</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="N25" s="7">
-        <v>81421</v>
+        <v>216284</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="D26" s="7">
-        <v>125633</v>
+        <v>287840</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
-        <v>196</v>
+        <v>478</v>
       </c>
       <c r="I26" s="7">
-        <v>156588</v>
+        <v>318169</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
-        <v>323</v>
+        <v>786</v>
       </c>
       <c r="N26" s="7">
-        <v>282221</v>
+        <v>606009</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>807</v>
+        <v>2847</v>
       </c>
       <c r="D27" s="7">
-        <v>765163</v>
+        <v>2953890</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
-        <v>1251</v>
+        <v>4523</v>
       </c>
       <c r="I27" s="7">
-        <v>890097</v>
+        <v>3074321</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
-        <v>2058</v>
+        <v>7370</v>
       </c>
       <c r="N27" s="7">
-        <v>1655260</v>
+        <v>6028210</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,319 +2367,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>983</v>
+        <v>3288</v>
       </c>
       <c r="D28" s="7">
-        <v>936382</v>
+        <v>3364120</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>1508</v>
+        <v>5189</v>
       </c>
       <c r="I28" s="7">
-        <v>1094345</v>
+        <v>3521132</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>2491</v>
+        <v>8477</v>
       </c>
       <c r="N28" s="7">
-        <v>2030728</v>
+        <v>6885251</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>15</v>
-      </c>
-      <c r="D29" s="7">
-        <v>17893</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" s="7">
-        <v>21</v>
-      </c>
-      <c r="I29" s="7">
-        <v>16678</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M29" s="7">
-        <v>36</v>
-      </c>
-      <c r="N29" s="7">
-        <v>34571</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>118</v>
-      </c>
-      <c r="D30" s="7">
-        <v>119885</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" s="7">
-        <v>167</v>
-      </c>
-      <c r="I30" s="7">
-        <v>128765</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="A29" t="s">
         <v>189</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M30" s="7">
-        <v>285</v>
-      </c>
-      <c r="N30" s="7">
-        <v>248650</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="7">
-        <v>308</v>
-      </c>
-      <c r="D31" s="7">
-        <v>316886</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="7">
-        <v>478</v>
-      </c>
-      <c r="I31" s="7">
-        <v>366308</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M31" s="7">
-        <v>786</v>
-      </c>
-      <c r="N31" s="7">
-        <v>683194</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2847</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2834821</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H32" s="7">
-        <v>4523</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3174608</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M32" s="7">
-        <v>7370</v>
-      </c>
-      <c r="N32" s="7">
-        <v>6009430</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3288</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3289485</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5189</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3686359</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8477</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6975844</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>212</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
